--- a/src/test/resources/WriteExcel.xlsx
+++ b/src/test/resources/WriteExcel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Mobile Number</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Golden number - 88083349</t>
+  </si>
+  <si>
+    <t>Free number - 87424020</t>
+  </si>
+  <si>
+    <t>Golden number - 88085773</t>
   </si>
 </sst>
 </file>
@@ -173,6 +179,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>

--- a/src/test/resources/WriteExcel.xlsx
+++ b/src/test/resources/WriteExcel.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="990" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="OrderDetails" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="OrderDetails" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Mobile Number</t>
   </si>
@@ -31,19 +31,25 @@
     <t xml:space="preserve">Golden number - 88085621</t>
   </si>
   <si>
-    <t>Golden number - 88084322</t>
-  </si>
-  <si>
-    <t>Golden number - 88085851</t>
-  </si>
-  <si>
-    <t>Golden number - 88083349</t>
-  </si>
-  <si>
-    <t>Free number - 87424020</t>
-  </si>
-  <si>
-    <t>Golden number - 88085773</t>
+    <t xml:space="preserve">Golden number - 88084322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden number - 88085851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden number - 88083349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free number - 87424020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden number - 88085773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden number - 88082865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000001509612688092</t>
   </si>
 </sst>
 </file>
@@ -85,7 +91,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -94,43 +100,43 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -140,18 +146,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="23.8928571428571" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -159,40 +167,50 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
